--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -1100,22 +1100,22 @@
     <row r="2" ht="18.75" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>nmc32yf@yopmail.com</t>
+          <t>uj9ge8c@yopmail.com</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>TestGSiFe</t>
+          <t>TestrPtyD</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>TestzJWYw Solutions LLC</t>
+          <t>TesthiZni Creators LLC</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>9336703658</t>
+          <t>9052690597</t>
         </is>
       </c>
     </row>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -1,213 +1,347 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="19200" windowHeight="6830" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="19200" windowHeight="6830"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+  <si>
+    <t>Company Sign Up Email</t>
+  </si>
+  <si>
+    <t>contactname</t>
+  </si>
+  <si>
+    <t>company name</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Listed Companies Name</t>
+  </si>
+  <si>
+    <t>Listed Companies Email</t>
+  </si>
+  <si>
+    <t>yxs75j4@yopmail.com</t>
+  </si>
+  <si>
+    <t>TestNUcwa</t>
+  </si>
+  <si>
+    <t>TestOwzOB Solutions Group</t>
+  </si>
+  <si>
+    <t>6847424952</t>
+  </si>
+  <si>
+    <t>empmo33nhq@yopmail.com</t>
+  </si>
+  <si>
+    <t>TestXeeRW Innovations Private Limited</t>
+  </si>
+  <si>
+    <t>x4fkhis@yopmail.com</t>
+  </si>
+  <si>
+    <t>Individual Sign Up Email</t>
+  </si>
+  <si>
+    <t>Fullname</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>TestUbLIG Services LLC</t>
+  </si>
+  <si>
+    <t>nw54pjc@yopmail.com</t>
+  </si>
+  <si>
+    <t>q6484lk@yopmail.com</t>
+  </si>
+  <si>
+    <t>TestGaHLI</t>
+  </si>
+  <si>
+    <t>Inlynk@123</t>
+  </si>
+  <si>
+    <t>7405505882</t>
+  </si>
+  <si>
+    <t>TestJtaVg Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>yl2p2fa@yopmail.com</t>
+  </si>
+  <si>
+    <t>company name (Manually) - Emp sign up</t>
+  </si>
+  <si>
+    <t>Listed company Email (Manually)</t>
+  </si>
+  <si>
+    <t>Emp email id</t>
+  </si>
+  <si>
+    <t>TestQXgXo Technologies Group</t>
+  </si>
+  <si>
+    <t>n68nq74@yopmail.com</t>
+  </si>
+  <si>
+    <t>All Company</t>
+  </si>
+  <si>
+    <t>alltest@yopmail.com</t>
+  </si>
+  <si>
+    <t>TestvlFrG</t>
+  </si>
+  <si>
+    <t>7691819410</t>
+  </si>
+  <si>
+    <t>kz7fbcu@yopmail.com</t>
+  </si>
+  <si>
+    <t>Added Employees from inside the company - Emp name</t>
+  </si>
+  <si>
+    <t>Personal Email</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Email address</t>
+  </si>
+  <si>
+    <t>TestCyECx</t>
+  </si>
+  <si>
+    <t>personalmvk6uby@yopmail.com</t>
+  </si>
+  <si>
+    <t>91056</t>
+  </si>
+  <si>
+    <t>7143803859</t>
+  </si>
+  <si>
+    <t>empmvk6uby@yopmail.com</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <b val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="14"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <color theme="10"/>
-      <sz val="14"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="14"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -405,12 +539,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -514,165 +663,171 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -728,74 +883,11 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1055,198 +1147,239 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col width="28" customWidth="1" style="1" min="1" max="2"/>
-    <col width="32.5454545454545" customWidth="1" style="1" min="3" max="3"/>
-    <col width="17" customWidth="1" style="1" min="4" max="4"/>
-    <col width="20.5454545454545" customWidth="1" style="1" min="5" max="5"/>
-    <col width="9" customWidth="1" style="1" min="6" max="16384"/>
+    <col min="1" max="2" width="28" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5454545454545" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.4545454545455" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1818181818182" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.9090909090909" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.81818181818182" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.90909090909091" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Company Sign Up Email</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>contactname</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>company name</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Phone</t>
-        </is>
+    <row r="1" ht="22" customHeight="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>uj9ge8c@yopmail.com</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>TestrPtyD</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>TesthiZni Creators LLC</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>9052690597</t>
-        </is>
+    <row r="2" ht="29" customHeight="1" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Individual Sign Up Email</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>Fullname</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>Phone</t>
-        </is>
+    <row r="3" ht="18.75" customHeight="1" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>q6484lk@yopmail.com</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>TestGaHLI</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>Inlynk@123</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>7405505882</t>
-        </is>
+    <row r="4" ht="30" customHeight="1" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" ht="27" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>company name (Manually) - Emp sign up</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Listed company Email (Manually)</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>Fullname</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>Phone</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Emp email id</t>
-        </is>
+    <row r="5" ht="27" customHeight="1" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>All Company</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>alltest@yopmail.com</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>TestvlFrG</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7691819410</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>kz7fbcu@yopmail.com</t>
-        </is>
+    <row r="6" ht="15" customHeight="1" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="7" ht="18.5" customHeight="1">
-      <c r="I7" s="4" t="n"/>
-      <c r="J7" s="4" t="n"/>
-      <c r="K7" s="4" t="n"/>
+    <row r="7" ht="32" customHeight="1" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
-    <row r="8" ht="18.5" customHeight="1">
-      <c r="I8" s="5" t="n"/>
-      <c r="J8" s="6" t="n"/>
-      <c r="K8" s="6" t="n"/>
+    <row r="8" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
     </row>
-    <row r="9" ht="18.5" customHeight="1">
-      <c r="I9" s="5" t="n"/>
-      <c r="J9" s="6" t="n"/>
-      <c r="K9" s="6" t="n"/>
+    <row r="9" ht="18.5" customHeight="1" spans="9:11">
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
-    <row r="10" ht="18.5" customHeight="1">
-      <c r="I10" s="5" t="n"/>
-      <c r="J10" s="6" t="n"/>
-      <c r="K10" s="6" t="n"/>
+    <row r="10" ht="18.5" customHeight="1" spans="8:11">
+      <c r="H10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
-    <row r="11" ht="18.5" customHeight="1">
-      <c r="I11" s="5" t="n"/>
-      <c r="J11" s="6" t="n"/>
-      <c r="K11" s="6" t="n"/>
+    <row r="11" ht="18.5" customHeight="1" spans="8:11">
+      <c r="H11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" ht="29" spans="8:9">
+      <c r="H12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" ht="29" spans="8:9">
+      <c r="H13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" tooltip="mailto:alltest@yopmail.com" display="alltest@yopmail.com" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" display="alltest@yopmail.com" tooltip="mailto:alltest@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -683,28 +683,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1094,27 +1100,28 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="28" customHeight="1"/>
   <cols>
-    <col width="28" customWidth="1" style="1" min="1" max="2"/>
-    <col width="32.5454545454545" customWidth="1" style="1" min="3" max="3"/>
-    <col width="17" customWidth="1" style="1" min="4" max="4"/>
-    <col width="25.4545454545455" customWidth="1" style="1" min="5" max="5"/>
-    <col width="9" customWidth="1" style="1" min="6" max="7"/>
-    <col width="34.2727272727273" customWidth="1" style="1" min="8" max="8"/>
-    <col width="23.9090909090909" customWidth="1" style="1" min="9" max="9"/>
-    <col width="12.5454545454545" customWidth="1" style="1" min="10" max="10"/>
-    <col width="27.7272727272727" customWidth="1" style="1" min="11" max="11"/>
-    <col width="8.81818181818182" customWidth="1" style="1" min="12" max="12"/>
-    <col width="8.90909090909091" customWidth="1" style="1" min="13" max="13"/>
-    <col width="9" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="28" customWidth="1" style="4" min="1" max="2"/>
+    <col width="32.5454545454545" customWidth="1" style="4" min="3" max="3"/>
+    <col width="17" customWidth="1" style="4" min="4" max="4"/>
+    <col width="25.4545454545455" customWidth="1" style="4" min="5" max="5"/>
+    <col width="9" customWidth="1" style="4" min="6" max="7"/>
+    <col width="34.2727272727273" customWidth="1" style="4" min="8" max="8"/>
+    <col width="23.9090909090909" customWidth="1" style="4" min="9" max="9"/>
+    <col width="12.5454545454545" customWidth="1" style="4" min="10" max="10"/>
+    <col width="27.7272727272727" customWidth="1" style="4" min="11" max="11"/>
+    <col width="8.81818181818182" customWidth="1" style="4" min="12" max="12"/>
+    <col width="8.90909090909091" customWidth="1" style="4" min="13" max="13"/>
+    <col width="9" customWidth="1" style="4" min="14" max="32"/>
+    <col width="22.5454545454545" customWidth="1" style="4" min="33" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22" customHeight="1">
+    <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Company Sign Up Email</t>
@@ -1135,55 +1142,55 @@
           <t>Phone</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="8" t="inlineStr">
         <is>
           <t>Listed Companies Name</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="8" t="inlineStr">
         <is>
           <t>Listed Companies Email</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="29" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>gwezqqh@yopmail.com</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>TestgyDzN</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>TestdlLsi Innovations Enterprises</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>8729797279</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>w1l8x9w@yopmail.com</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>TestuvSwC</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>TestLmZad Systems Inc.</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>6038603906</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>empmo33nhq@yopmail.com</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>TestUbLIG Services LLC</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>nw54pjc@yopmail.com</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
+    <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Individual Sign Up Email</t>
@@ -1204,53 +1211,53 @@
           <t>Phone</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t>TestXeeRW Innovations Private Limited</t>
         </is>
       </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="I3" s="5" t="inlineStr">
         <is>
           <t>x4fkhis@yopmail.com</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>q6484lk@yopmail.com</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>TestGaHLI</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Inlynk@123</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>7405505882</t>
         </is>
       </c>
-      <c r="H4" s="4" t="inlineStr">
+      <c r="H4" s="5" t="inlineStr">
         <is>
           <t>TestJtaVg Solutions Private Limited</t>
         </is>
       </c>
-      <c r="I4" s="4" t="inlineStr">
+      <c r="I4" s="5" t="inlineStr">
         <is>
           <t>yl2p2fa@yopmail.com</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="27" customHeight="1">
+    <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>company name (Manually) - Emp sign up</t>
+          <t>company name (Manually) - Emp sign up with domain</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -1273,162 +1280,210 @@
           <t>Emp email id</t>
         </is>
       </c>
-      <c r="H5" s="4" t="inlineStr">
+      <c r="H5" s="5" t="inlineStr">
         <is>
           <t>TestQXgXo Technologies Group</t>
         </is>
       </c>
-      <c r="I5" s="4" t="inlineStr">
+      <c r="I5" s="5" t="inlineStr">
         <is>
           <t>n68nq74@yopmail.com</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>TestNUWPF Creators Inc.</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>jgpt835@yopmail.com</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>Testglunc</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>8290095671</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>personalptqaczb@yopmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Added Employees from inside the company - Emp name</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Personal Email</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Email address</t>
+        </is>
+      </c>
+      <c r="I7" s="10" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="10" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>TestvTfNr</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>personalapvtt21@yopmail.com</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>91114</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>6371335854</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>empapvtt21@yopmail.com</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr">
+        <is>
+          <t>test_ListedCompanyAddEmp.py</t>
+        </is>
+      </c>
+      <c r="I8" s="11" t="n"/>
+      <c r="J8" s="12" t="n"/>
+      <c r="K8" s="12" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>company name (Manually) - Emp sign up without domain</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>Listed Companies Email</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Fullname</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Emp email id</t>
+        </is>
+      </c>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Listed Companies Name</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>Listed Companies Email</t>
+        </is>
+      </c>
+      <c r="J9" s="13" t="inlineStr">
+        <is>
+          <t>Emp Name</t>
+        </is>
+      </c>
+      <c r="K9" s="13" t="inlineStr">
+        <is>
+          <t>Emp Email</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>All Company</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B10" s="9" t="inlineStr">
         <is>
           <t>alltest@yopmail.com</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>TestvlFrG</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7691819410</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>kz7fbcu@yopmail.com</t>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>TestgfaxM</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>6815705412</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>veg1wuy@yopmail.com</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>TestNUWPF Creators Inc.</t>
+        </is>
+      </c>
+      <c r="I10" s="5" t="inlineStr">
+        <is>
+          <t>jgpt835@yopmail.com</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="inlineStr">
+        <is>
+          <t>Testglunc</t>
+        </is>
+      </c>
+      <c r="K10" s="6" t="inlineStr">
+        <is>
+          <t>personalptqaczb@yopmail.com</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="32" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Added Employees from inside the company - Emp name</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Personal Email</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>Phone</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Email address</t>
-        </is>
-      </c>
-      <c r="I7" s="8" t="n"/>
-      <c r="J7" s="8" t="n"/>
-      <c r="K7" s="8" t="n"/>
+    <row r="11">
+      <c r="J11" s="12" t="n"/>
+      <c r="K11" s="12" t="n"/>
     </row>
-    <row r="8" ht="18.5" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>TestajDyT</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>personalb5u0823@yopmail.com</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>92829</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7542672285</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>empb5u0823@yopmail.com</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="inlineStr">
-        <is>
-          <t>test_ListedCompanyAddEmp.py</t>
-        </is>
-      </c>
-      <c r="I8" s="9" t="n"/>
-      <c r="J8" s="10" t="n"/>
-      <c r="K8" s="10" t="n"/>
-    </row>
-    <row r="9" ht="18.5" customHeight="1">
-      <c r="H9" s="7" t="inlineStr">
-        <is>
-          <t>Listed Companies Name</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr">
-        <is>
-          <t>Listed Companies Email</t>
-        </is>
-      </c>
-      <c r="J9" s="11" t="inlineStr">
-        <is>
-          <t>Emp Name</t>
-        </is>
-      </c>
-      <c r="K9" s="11" t="inlineStr">
-        <is>
-          <t>Emp Email</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="18.5" customHeight="1">
-      <c r="H10" s="4" t="inlineStr">
-        <is>
-          <t>TestNUWPF Creators Inc.</t>
-        </is>
-      </c>
-      <c r="I10" s="4" t="inlineStr">
-        <is>
-          <t>jgpt835@yopmail.com</t>
-        </is>
-      </c>
-      <c r="J10" s="12" t="inlineStr">
-        <is>
-          <t>Testglunc</t>
-        </is>
-      </c>
-      <c r="K10" s="12" t="inlineStr">
-        <is>
-          <t>personalptqaczb@yopmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="18.5" customHeight="1">
-      <c r="J11" s="13" t="n"/>
-      <c r="K11" s="13" t="n"/>
-    </row>
-    <row r="12" ht="29" customHeight="1"/>
-    <row r="13" ht="29" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" tooltip="mailto:alltest@yopmail.com" display="alltest@yopmail.com" r:id="rId1"/>
+    <hyperlink ref="B10" tooltip="mailto:alltest@yopmail.com" display="alltest@yopmail.com" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="1"/>
